--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>名称</t>
   </si>
@@ -49,19 +49,19 @@
     <t>中继器</t>
   </si>
   <si>
-    <t>功能包括信号中继，单向传输(二极管)，延时，锁存(简化的RS触发器)</t>
+    <t>功能包括信号中继，单向传输(二极管)，延时，锁存(RAM锁存功能，可以视作简化版的RS触发器)</t>
   </si>
   <si>
     <t>活塞断路器</t>
   </si>
   <si>
-    <t>用于在空间布线中简化部分电路的元件</t>
+    <t>用于在空间布线中简化部分电路的元件，由游戏中的粘性活塞加方块构成</t>
   </si>
   <si>
     <t>绝缘方块</t>
   </si>
   <si>
-    <t>用于在空间布线中简化部分电路的元件，不会被充能</t>
+    <t>用于在空间布线中简化部分电路的元件，不会被充能，例如玻璃</t>
   </si>
   <si>
     <t>或门</t>
@@ -100,22 +100,58 @@
     <t>由若干个非门和或门组成</t>
   </si>
   <si>
+    <t>全加器</t>
+  </si>
+  <si>
+    <t>小型组合电路</t>
+  </si>
+  <si>
+    <t>分两种，有活塞版和无活塞版，无活塞版较优，因为活塞的运行没有火把稳定</t>
+  </si>
+  <si>
+    <t>低通滤波器</t>
+  </si>
+  <si>
+    <t>过滤掉高速变换信号，保留稳定输入信号</t>
+  </si>
+  <si>
+    <t>6bit ECC校验器</t>
+  </si>
+  <si>
+    <t>如果储存器中加了ECC奇偶校验位，取出的数据输入该结构可以判断储存数据有没有出错</t>
+  </si>
+  <si>
     <t>RS触发器</t>
   </si>
   <si>
-    <t>小型组合电路</t>
-  </si>
-  <si>
-    <t>因为用基础逻辑门搭建RS触发器体积较大，在游戏中建造储存器一般使用中继器自带的锁存功能</t>
+    <t>小型时序电路</t>
+  </si>
+  <si>
+    <t>两个与非门输入输出互联的基本触发器，有记忆功能</t>
   </si>
   <si>
     <t>T触发器</t>
   </si>
   <si>
-    <t>低通滤波器</t>
-  </si>
-  <si>
-    <t>全加器</t>
+    <t>基本触发器，有信号翻转功能</t>
+  </si>
+  <si>
+    <t>脉冲信号发生器</t>
+  </si>
+  <si>
+    <t>模拟时钟信号，和现实中不一样，现实中的时钟信号是由晶振统一提供的，游戏内相对自由一些，可随意在部分电路内产生时钟</t>
+  </si>
+  <si>
+    <t>任意长度信号转换器</t>
+  </si>
+  <si>
+    <t>实现以游戏中电路最小tick为倍数的任意时间信号之间的转换</t>
+  </si>
+  <si>
+    <t>1bit 储存器单元</t>
+  </si>
+  <si>
+    <t>两个版本：RS触发器改造成D触发器版，中继器锁存特性版。造大规模储存器主要用中继器版，因为空间占用较小</t>
   </si>
   <si>
     <t>8bit 全加器阵列</t>
@@ -124,76 +160,85 @@
     <t>中型组合电路</t>
   </si>
   <si>
+    <t>多个全加器并排，可以演示进位加法</t>
+  </si>
+  <si>
     <t>4bit 比较器</t>
   </si>
   <si>
-    <t>选择器</t>
+    <t>比较两个输入数大小</t>
+  </si>
+  <si>
+    <t>多路选择器</t>
+  </si>
+  <si>
+    <t>对输入数据进行译码，选择一个输出端</t>
   </si>
   <si>
     <t>15bit 位数判断器</t>
   </si>
   <si>
-    <t>6bit ECC校验器</t>
-  </si>
-  <si>
-    <t>BCD七段数字显示器单元</t>
+    <t>判断两个输入数哪个位数较多，并输出最高位数对应的值</t>
+  </si>
+  <si>
+    <t>七段数字显示器单元</t>
+  </si>
+  <si>
+    <t>包括显示屏单元和BCD译码器</t>
   </si>
   <si>
     <t>2x2点控显示器单元</t>
   </si>
   <si>
+    <t>最小控制力度的点控屏幕单元</t>
+  </si>
+  <si>
+    <t>2x1byte 储存器阵列</t>
+  </si>
+  <si>
+    <t>中型时序电路</t>
+  </si>
+  <si>
+    <t>两个颜色不一样但功能一致的1byte储存器相连</t>
+  </si>
+  <si>
+    <t>单向移位器</t>
+  </si>
+  <si>
+    <t>储存信号只能向一个方向移位的触发器</t>
+  </si>
+  <si>
+    <t>双向移位器</t>
+  </si>
+  <si>
+    <t>储存信号可以向相反的两个方向移位的触发器，可用于寄存器栈结构的栈顶指针</t>
+  </si>
+  <si>
     <t>8bit 全功能加法器</t>
   </si>
   <si>
     <t>大型组合电路</t>
   </si>
   <si>
-    <t>原码输入-&gt;补码加减法-&gt;溢出判断-&gt;原码输出</t>
+    <t>原码输入-&gt;转补码-&gt;补码加减法-&gt;溢出判断-&gt;转原码输出</t>
   </si>
   <si>
     <t>15bit BIN转BCD运算器</t>
   </si>
   <si>
+    <t>使用通用的BIN转BCD算法</t>
+  </si>
+  <si>
     <t>15bit 整数乘法器</t>
   </si>
   <si>
-    <t>串行乘法器</t>
+    <t>串行乘法器，因为输入输出都是15位，所以有一些部分积电路是多余的，但是我没有删去</t>
   </si>
   <si>
     <t>15bit 整数除法器</t>
   </si>
   <si>
     <t>加减交替算法，过程不恢复余数，最后出结果时恢复余数</t>
-  </si>
-  <si>
-    <t>脉冲信号发生器</t>
-  </si>
-  <si>
-    <t>小型时序电路</t>
-  </si>
-  <si>
-    <t>任意长度信号转换器</t>
-  </si>
-  <si>
-    <t>1bit 储存器单元</t>
-  </si>
-  <si>
-    <t>两个版本，RS触发器版和中继器锁存特性版</t>
-  </si>
-  <si>
-    <t>2x8bit 储存器阵列</t>
-  </si>
-  <si>
-    <t>中型时序电路</t>
-  </si>
-  <si>
-    <t>单向移位器</t>
-  </si>
-  <si>
-    <t>双向移位器</t>
-  </si>
-  <si>
-    <t>可用于寄存器栈结构的栈顶指针</t>
   </si>
   <si>
     <t>程序计数器</t>
@@ -228,12 +273,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,23 +294,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,117 +430,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -409,25 +447,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,157 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,28 +665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +690,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -686,175 +728,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1185,14 +1220,14 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.8333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.8333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.4166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="106.333333333333" style="2" customWidth="1"/>
     <col min="4" max="6" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1206,9 +1241,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
@@ -1217,7 +1252,7 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1228,7 +1263,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1239,7 +1274,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1250,7 +1285,7 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1261,7 +1296,7 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1272,7 +1307,7 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1283,7 +1318,7 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1294,7 +1329,7 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1305,7 +1340,7 @@
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1316,7 +1351,7 @@
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1327,7 +1362,7 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1338,7 +1373,7 @@
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1349,262 +1384,292 @@
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
         <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="5"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="5"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="5"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="5"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="5"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="5"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="5"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="5"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="5"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="5"/>
+      <c r="C47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -250,7 +250,7 @@
     <t>有开启自动清零，自动循环加一，接收外部跳转地址等功能</t>
   </si>
   <si>
-    <t>8x8byte 全功能储存器</t>
+    <t>8x1byte 全功能储存器</t>
   </si>
   <si>
     <t>包含储存器，地址译码器，寻址模式控制，输入输出控制等电路结构。支持按半字节，安字节的读取和写入</t>
@@ -273,8 +273,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -301,61 +301,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,8 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,17 +327,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,7 +350,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,9 +402,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,13 +447,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,6 +603,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,157 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,17 +641,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,16 +677,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,28 +718,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,133 +756,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>名称</t>
   </si>
@@ -91,13 +91,13 @@
     <t>与门</t>
   </si>
   <si>
-    <t>由三个非门和一个或门组成</t>
+    <t>三种构型，都是由三个非门和一个或门组成</t>
   </si>
   <si>
     <t>异或门</t>
   </si>
   <si>
-    <t>由若干个非门和或门组成</t>
+    <t>三种构型，由若干个非门和或门组成</t>
   </si>
   <si>
     <t>全加器</t>
@@ -106,7 +106,7 @@
     <t>小型组合电路</t>
   </si>
   <si>
-    <t>分两种，有活塞版和无活塞版，无活塞版较优，因为活塞的运行没有火把稳定</t>
+    <t>两种构型，有活塞版和无活塞版，无活塞版较优，因为活塞的运行没有火把稳定</t>
   </si>
   <si>
     <t>低通滤波器</t>
@@ -115,18 +115,24 @@
     <t>过滤掉高速变换信号，保留稳定输入信号</t>
   </si>
   <si>
-    <t>6bit ECC校验器</t>
-  </si>
-  <si>
-    <t>如果储存器中加了ECC奇偶校验位，取出的数据输入该结构可以判断储存数据有没有出错</t>
-  </si>
-  <si>
-    <t>RS触发器</t>
+    <t>6bit 奇偶校验器</t>
+  </si>
+  <si>
+    <t>如果储存器中加了奇偶校验位，取出的数据输入该结构可以判断储存数据有没有出错</t>
+  </si>
+  <si>
+    <t>或非RS触发器</t>
   </si>
   <si>
     <t>小型时序电路</t>
   </si>
   <si>
+    <t>两个或非门输入输出互联的基本触发器，有记忆功能</t>
+  </si>
+  <si>
+    <t>与非RS触发器</t>
+  </si>
+  <si>
     <t>两个与非门输入输出互联的基本触发器，有记忆功能</t>
   </si>
   <si>
@@ -151,7 +157,7 @@
     <t>1bit 储存器单元</t>
   </si>
   <si>
-    <t>两个版本：RS触发器改造成D触发器版，中继器锁存特性版。造大规模储存器主要用中继器版，因为空间占用较小</t>
+    <t>两种构型：与非RS触发器改造成D触发器版，中继器锁存特性版。造大规模储存器主要用中继器版，因为空间占用较小。</t>
   </si>
   <si>
     <t>8bit 全加器阵列</t>
@@ -273,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -303,7 +309,128 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,127 +443,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -447,43 +453,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,139 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,6 +644,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,41 +706,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,26 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1459,18 +1465,18 @@
         <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>50</v>
@@ -1481,7 +1487,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>52</v>
@@ -1492,7 +1498,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>54</v>
@@ -1503,7 +1509,7 @@
         <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -1514,7 +1520,7 @@
         <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>58</v>
@@ -1525,18 +1531,18 @@
         <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>63</v>
@@ -1547,7 +1553,7 @@
         <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>65</v>
@@ -1558,18 +1564,18 @@
         <v>66</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>70</v>
@@ -1580,7 +1586,7 @@
         <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>72</v>
@@ -1591,7 +1597,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>74</v>
@@ -1602,18 +1608,18 @@
         <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>79</v>
@@ -1624,7 +1630,7 @@
         <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>81</v>
@@ -1635,14 +1641,22 @@
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="4"/>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="4"/>
@@ -1670,6 +1684,9 @@
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -139,7 +139,7 @@
     <t>T触发器</t>
   </si>
   <si>
-    <t>基本触发器，有信号翻转功能</t>
+    <t>基本触发器，有信号翻转功能，上沿触发</t>
   </si>
   <si>
     <t>脉冲信号发生器</t>
@@ -151,7 +151,7 @@
     <t>任意长度信号转换器</t>
   </si>
   <si>
-    <t>实现以游戏中电路最小tick为倍数的任意时间信号之间的转换</t>
+    <t>实现以游戏中电路最小tick为倍数的任意时间信号之间的转换，上沿触发。时间长度的设置需要修改电路中的继电器数量并调整挡位</t>
   </si>
   <si>
     <t>1bit 储存器单元</t>
@@ -172,7 +172,7 @@
     <t>4bit 比较器</t>
   </si>
   <si>
-    <t>比较两个输入数大小</t>
+    <t>比较两个输入数大小，因为空间不够用只造了4位的，将中间部分的电路级联就能扩展位数</t>
   </si>
   <si>
     <t>多路选择器</t>
@@ -211,13 +211,13 @@
     <t>单向移位器</t>
   </si>
   <si>
-    <t>储存信号只能向一个方向移位的触发器</t>
+    <t>储存信号只能向一个方向移位的触发器，上沿触发</t>
   </si>
   <si>
     <t>双向移位器</t>
   </si>
   <si>
-    <t>储存信号可以向相反的两个方向移位的触发器，可用于寄存器栈结构的栈顶指针</t>
+    <t>储存信号可以向相反的两个方向移位的触发器，可用于寄存器栈结构的栈顶指针，上沿触发</t>
   </si>
   <si>
     <t>8bit 全功能加法器</t>
@@ -232,7 +232,7 @@
     <t>15bit BIN转BCD运算器</t>
   </si>
   <si>
-    <t>使用通用的BIN转BCD算法</t>
+    <t>使用通用的BIN转BCD算法。输入为二进制，输出为十进制，输出的每4个二进制位表示一个十进制位的数字，电路结构中有标注</t>
   </si>
   <si>
     <t>15bit 整数乘法器</t>
@@ -244,7 +244,7 @@
     <t>15bit 整数除法器</t>
   </si>
   <si>
-    <t>加减交替算法，过程不恢复余数，最后出结果时恢复余数</t>
+    <t>加减交替算法，过程不恢复余数，最后出结果时恢复余数。此电路结构运算密集度非常高，电脑性能如果较弱的话慎用</t>
   </si>
   <si>
     <t>程序计数器</t>
@@ -279,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -309,39 +309,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,28 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -392,7 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,32 +413,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,187 +453,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,17 +647,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,22 +697,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,46 +744,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1225,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
   <si>
     <t>名称</t>
   </si>
@@ -37,25 +37,25 @@
     <t>基础元件</t>
   </si>
   <si>
-    <t>包括红石火把，红石块，拉杆，压力板，按钮等，可恒定输出或触发输出高电平信号</t>
+    <t>包括红石火把，红石块，拉杆，压力板，按钮等，可恒定输出或触发输出高电平信号。</t>
   </si>
   <si>
     <t>导线</t>
   </si>
   <si>
-    <t>红石粉放置在地面成为一个基本的导线单元，向邻接的其他信号元件传递信号</t>
+    <t>红石粉放置在地面成为一个基本的导线单元，向邻接的其他信号元件传递信号。</t>
   </si>
   <si>
     <t>导体方块</t>
   </si>
   <si>
-    <t>用于放置其他信号元件的实体方块，可以被充能，绝大部分方块都是导体方块，存档中各种不同颜色的方块没有功能上的区别，只是为了更方便的区分不同的电路，否则用同种颜色的导体方块在电路很密集的情况下会难以区分三维结构</t>
+    <t>用于放置其他信号元件的实体方块，可以被充能，绝大部分方块都是导体方块，存档中各种不同颜色的方块没有功能上的区别，只是为了更方便的区分不同的电路，否则用同种颜色的导体方块在电路很密集的情况下会难以区分三维结构。</t>
   </si>
   <si>
     <t>中继器</t>
   </si>
   <si>
-    <t>功能包括信号中继，单向传输(二极管)，延时，锁存(RAM锁存功能，可以视作简化版的RS触发器)</t>
+    <t>功能包括信号中继，单向传输(二极管)，延时，锁存(RAM锁存功能，可以视作简化版的RS触发器)。</t>
   </si>
   <si>
     <t>活塞断路器</t>
@@ -64,7 +64,7 @@
     <t>1388, -636</t>
   </si>
   <si>
-    <t>用于在空间布线中简化部分电路的元件，由游戏中的粘性活塞加方块构成</t>
+    <t>用于在空间布线中简化部分电路的元件，由游戏中的粘性活塞加方块构成。</t>
   </si>
   <si>
     <t>绝缘方块</t>
@@ -73,7 +73,7 @@
     <t>1388, -676</t>
   </si>
   <si>
-    <t>用于在空间布线中简化部分电路的元件，不会被充能，例如玻璃</t>
+    <t>用于在空间布线中简化部分电路的元件，不会被充能，例如玻璃。</t>
   </si>
   <si>
     <t>或门</t>
@@ -85,7 +85,7 @@
     <t>基础逻辑门</t>
   </si>
   <si>
-    <t>根据基础元件红石导线的信号传输特性构成，存档中给出的是一个三输入或门</t>
+    <t>根据基础元件红石导线的信号传输特性构成，存档中给出的是一个三输入或门。</t>
   </si>
   <si>
     <t>非门</t>
@@ -94,7 +94,7 @@
     <t>1388, -619</t>
   </si>
   <si>
-    <t>根据基础元件红石火把的反向器特性构成</t>
+    <t>根据基础元件红石火把的反向器特性构成。</t>
   </si>
   <si>
     <t>或非门</t>
@@ -106,7 +106,7 @@
     <t>组合逻辑门</t>
   </si>
   <si>
-    <t>由一个或门和一个非门组成</t>
+    <t>由一个或门和一个非门组成。</t>
   </si>
   <si>
     <t>与非门</t>
@@ -115,7 +115,7 @@
     <t>1388, -655</t>
   </si>
   <si>
-    <t>由两个非门和一个或门组成，输出端加上一个非门就变成与门</t>
+    <t>由两个非门和一个或门组成，输出端加上一个非门就变成与门。</t>
   </si>
   <si>
     <t>与门</t>
@@ -124,7 +124,7 @@
     <t>1388, -665</t>
   </si>
   <si>
-    <t>两种构型(蓝色和黄色的两个可以视作同一种构型的变体)，都是由三个非门和一个或门组成。多输入与门读者可以尝试自行设计</t>
+    <t>两种构型(蓝色和黄色的两个可以视作同一种构型的变体)，都是由三个非门和一个或门组成。多输入与门读者可以尝试自行设计。</t>
   </si>
   <si>
     <t>异或门</t>
@@ -133,13 +133,13 @@
     <t>1400, -587</t>
   </si>
   <si>
-    <t>三种构型，由若干个非门和或门组成，第二种用到了活塞</t>
+    <t>三种构型，由若干个非门和或门组成，第二种用到了活塞。</t>
   </si>
   <si>
     <t>同或门</t>
   </si>
   <si>
-    <t>存档中未单独给出，因为只需要将异或门输出端加一个非门就是同或门</t>
+    <t>存档中未单独给出，因为只需要将异或门输出端加一个非门就是同或门。</t>
   </si>
   <si>
     <t>全加器</t>
@@ -151,7 +151,7 @@
     <t>小型组合电路</t>
   </si>
   <si>
-    <t>两种构型：有活塞版和无活塞版，无活塞版较优，因为活塞的运行没有火把稳定</t>
+    <t>两种构型：有活塞版和无活塞版，无活塞版较优，因为活塞的运行没有火把稳定。</t>
   </si>
   <si>
     <t>低通滤波器</t>
@@ -160,7 +160,7 @@
     <t>1400, -672</t>
   </si>
   <si>
-    <t>两种构型：一种用火把与门，另一种用活塞与门。该结构能过滤掉高速变换的信号，将输入长度大于过滤长度的信号输出(非原样输出，输出长度为输入长度减去过滤长度)。可将输入长度和过滤长度调整到不同的值观察效果</t>
+    <t>两种构型：一种用火把与门，另一种用活塞与门。该结构能过滤掉高速变换的信号，将输入长度大于过滤长度的信号输出(非原样输出，输出长度为输入长度减去过滤长度)。可将输入长度和过滤长度调整到不同的值观察效果。</t>
   </si>
   <si>
     <t>6bit 奇偶校验器</t>
@@ -169,7 +169,7 @@
     <t>1435, -532</t>
   </si>
   <si>
-    <t>如果储存器中加了奇偶校验位，取出的数据输入该结构可以判断该数据有没有1bit的错误。读者可研究一下如何结合储存器和奇偶校验器建造出一个完整的ECC校验器</t>
+    <t>如果储存器中加了奇偶校验位，取出的数据输入该结构可以判断该数据有没有1bit的错误。读者可研究一下如何结合储存器和奇偶校验器建造出一个完整的ECC校验器。</t>
   </si>
   <si>
     <t>或非RS触发器</t>
@@ -181,16 +181,16 @@
     <t>小型时序电路</t>
   </si>
   <si>
-    <t>两个或非门输入输出互联的RS触发器，有记忆功能</t>
+    <t>两个或非门输入输出互联的RS触发器，有记忆功能。</t>
   </si>
   <si>
     <t>与非RS触发器</t>
   </si>
   <si>
-    <t>1400, -639</t>
-  </si>
-  <si>
-    <t>两个与非门输入输出互联的RS触发器，有记忆功能</t>
+    <t>1405, -638</t>
+  </si>
+  <si>
+    <t>两种构型：精简版和非精简版。两个与非门输入输出互联的RS触发器，有记忆功能。另外单独列出了精简版里用到的与非结构。</t>
   </si>
   <si>
     <t>T触发器</t>
@@ -199,7 +199,7 @@
     <t>1400, -653</t>
   </si>
   <si>
-    <t>有信号储存和翻转功能，上沿触发</t>
+    <t>有信号储存和翻转功能，上沿触发。</t>
   </si>
   <si>
     <t>脉冲信号时钟发生器</t>
@@ -217,7 +217,7 @@
     <t>1400, -616</t>
   </si>
   <si>
-    <t>实现以游戏中继电器最小tick(0.1秒)为倍数的任意时间长度信号之间的转换，上沿触发。设置输入和输出的时间长度需要去修改电路中的继电器数量并调整挡位</t>
+    <t>实现以继电器最小tick(0.1秒)为倍数的任意时间长度信号之间的转换，上沿触发。设置输入和输出的时间长度需要去修改电路中的继电器数量并调整挡位。</t>
   </si>
   <si>
     <t>1bit 储存器单元</t>
@@ -226,7 +226,7 @@
     <t>1450, -635</t>
   </si>
   <si>
-    <t>两种构型：与非RS触发器改造成D触发器版，中继器锁存特性版。造大规模储存器主要用中继器版，因为空间占用较小。</t>
+    <t>三种构型：非精简版的与非RS触发器改造成D触发器版，或非RS触发器改造成D触发器版，中继器锁存特性版。用这三种方式实现可以直观的看出同样功能的电路采用不同方案的体积差异非常巨大。造大规模储存器显然会选用中继器版，因为空间占用较小。精简版的与非RS触发器做成的1bit储存器在问题4中给出。</t>
   </si>
   <si>
     <t>8bit 全加器阵列</t>
@@ -238,7 +238,7 @@
     <t>中型组合电路</t>
   </si>
   <si>
-    <t>多个全加器并排，可以演示进位加法，蓝色输入端为操作数A，红色输入端为操作数B，两者相互交错</t>
+    <t>多个全加器并排，可以演示进位加法，蓝色输入端为操作数A，红色输入端为操作数B，两者相互交错。</t>
   </si>
   <si>
     <t>4bit 比较器</t>
@@ -247,7 +247,7 @@
     <t>1416, -668</t>
   </si>
   <si>
-    <t>比较两个输入数大小，因为空间不够用只造了4位的，将中间部分的电路级联就能扩展位数</t>
+    <t>比较两个输入数大小，因为空间不够用只造了4位的，将中间部分的电路级联就能扩展位数。</t>
   </si>
   <si>
     <t>多路选择器</t>
@@ -256,7 +256,7 @@
     <t>1450, -662</t>
   </si>
   <si>
-    <t>对输入数据进行译码，选择一个输出端</t>
+    <t>对输入的地址数据进行译码，选出对应的控制端。</t>
   </si>
   <si>
     <t>15bit 位数判断器</t>
@@ -265,7 +265,7 @@
     <t>1450, -565</t>
   </si>
   <si>
-    <t>判断两个输入数哪个位数较多，并输出最高位数对应的值</t>
+    <t>判断两个输入数哪个位数较多，并输出最高位数对应的值。</t>
   </si>
   <si>
     <t>七段数字显示器单元</t>
@@ -274,7 +274,7 @@
     <t>1470, -505</t>
   </si>
   <si>
-    <t>包括显示屏单元和BCD译码器，在屏幕下方或者电路最后方输入十进制数字对应的4位二进制BCD码，屏幕上会显示该十进制数</t>
+    <t>包括显示屏单元和BCD译码器，在屏幕下方或者电路最后方输入十进制数字对应的4位二进制BCD码，屏幕上会显示该十进制数。</t>
   </si>
   <si>
     <t>2x2点控显示器单元</t>
@@ -283,7 +283,7 @@
     <t>1450, -537</t>
   </si>
   <si>
-    <t>最小控制粒度的点控屏幕单元，存档中给出的是5x5像素，可级联扩展</t>
+    <t>最小控制粒度的点控屏幕单元，存档中给出的是5x5像素，可级联扩展。</t>
   </si>
   <si>
     <t>2x1byte 储存器</t>
@@ -295,16 +295,16 @@
     <t>中型时序电路</t>
   </si>
   <si>
-    <t>两个颜色不一样但功能一致的1byte储存器</t>
+    <t>两个颜色不一样但功能一致的1byte储存器。</t>
   </si>
   <si>
     <t>单向移位器</t>
   </si>
   <si>
-    <t>1415, -640</t>
-  </si>
-  <si>
-    <t>储存信号只能向一个方向移位的触发器，上沿触发，可用于指令缓冲队列</t>
+    <t>1418, -640</t>
+  </si>
+  <si>
+    <t>储存信号只能向一个方向移位的触发器，上沿触发，可用于指令缓冲队列。</t>
   </si>
   <si>
     <t>双向移位器</t>
@@ -313,7 +313,7 @@
     <t>1430, -640</t>
   </si>
   <si>
-    <t>储存信号可以向相反的两个方向移位的触发器，上沿触发，可用于寄存器栈结构的栈顶指针</t>
+    <t>储存信号可以向相反的两个方向移位的触发器，上沿触发，可用于寄存器栈结构的栈顶指针。</t>
   </si>
   <si>
     <t>8bit 全功能加法器</t>
@@ -325,7 +325,7 @@
     <t>大型组合电路</t>
   </si>
   <si>
-    <t>原码输入-&gt;转补码-&gt;补码加减法-&gt;溢出判断-&gt;转原码输出</t>
+    <t>原码输入-&gt;转补码-&gt;补码加减法-&gt;溢出判断-&gt;转原码输出。</t>
   </si>
   <si>
     <t>15bit BIN转BCD译码器</t>
@@ -334,7 +334,7 @@
     <t>1460, -710</t>
   </si>
   <si>
-    <t>使用通用的BIN转BCD算法。输入为二进制，输出为十进制，输出的每4个二进制位表示一个十进制位的数字</t>
+    <t>使用通用的BIN转BCD算法。输入为二进制，输出为十进制，输出的每4个二进制位表示一个十进制位的数字。</t>
   </si>
   <si>
     <t>15bit 整数乘法器</t>
@@ -343,7 +343,7 @@
     <t>1560, -725</t>
   </si>
   <si>
-    <t>串行乘法器，因为输入输出都是15位，所以有一些部分积电路是多余的，但是我没有删去</t>
+    <t>串行乘法器，因为输入输出都是15位，所以有一些部分积电路是多余的，但是我没有删去。</t>
   </si>
   <si>
     <t>15bit 整数除法器</t>
@@ -352,7 +352,7 @@
     <t>1560, -530</t>
   </si>
   <si>
-    <t>加减交替算法，过程不恢复余数，最后出结果时恢复余数。此电路结构运算密集度非常高，如果电脑性能较弱的话慎用</t>
+    <t>加减交替算法，过程不恢复余数，最后出结果时恢复余数。此电路结构运算密集度非常高，如果电脑性能较弱的话慎用。</t>
   </si>
   <si>
     <t>程序计数器</t>
@@ -364,7 +364,7 @@
     <t>大型时序电路</t>
   </si>
   <si>
-    <t>先开总开关，再开自动加一开关，就能观察到储存的地址数据一直循环自动加一的效果。另外也支持接收外部跳转地址等功能</t>
+    <t>先开总开关，再开自动加一开关，就能观察到储存的地址数据一直循环自动加一的效果。另外也支持接收外部跳转地址等功能。</t>
   </si>
   <si>
     <t>8x1byte 全功能储存器</t>
@@ -373,7 +373,7 @@
     <t>1400, -530</t>
   </si>
   <si>
-    <t>包含储存器，地址译码器，寻址模式控制，输入输出控制等电路结构。支持按半字节，安字节的读取和写入</t>
+    <t>包含储存器，地址译码器，寻址模式控制，输入输出控制等电路结构。支持按半字节，安字节的读取和写入。</t>
   </si>
   <si>
     <t>指令缓冲队列</t>
@@ -382,7 +382,7 @@
     <t>1485, -630</t>
   </si>
   <si>
-    <t>CPU流水线的一部分。需要和其他电路模块配合，所以只用于展示电路，无法演示完整功能</t>
+    <t>CPU流水线的一部分。需要和其他电路模块配合，所以只用于展示电路，无法演示完整功能。下方还有一个时钟发生器。</t>
   </si>
   <si>
     <t>正余弦运算器</t>
@@ -391,7 +391,37 @@
     <t>1560, -630</t>
   </si>
   <si>
-    <t>采用CORDIC旋转迭代算法。需要和其他电路模块配合，所以只用于展示电路，无法演示完整功能</t>
+    <t>采用CORDIC旋转迭代算法。需要和其他电路模块配合，所以只用于展示电路，无法演示完整功能。</t>
+  </si>
+  <si>
+    <t>QUIZ部分</t>
+  </si>
+  <si>
+    <t>简介和提示</t>
+  </si>
+  <si>
+    <t>问题1</t>
+  </si>
+  <si>
+    <t>有时因为空间的限制，会遇到输入和输出的位置和朝向固定，来建造某一种逻辑门。这个问题是关于与非门的，将标准的与非门简单改一下布线即可。</t>
+  </si>
+  <si>
+    <t>问题2</t>
+  </si>
+  <si>
+    <t>与或非门是4输入1输出的组合逻辑门，2个与门的输出接入1个或门，或门的输出再接入非门，真值表共16种情况。</t>
+  </si>
+  <si>
+    <t>问题3</t>
+  </si>
+  <si>
+    <t>将已经给出的多路选择器简化成2bit输出的情况即可。</t>
+  </si>
+  <si>
+    <t>问题4</t>
+  </si>
+  <si>
+    <t>给出一个精简版的与非RS触发器，基于它来建造一个和已经给出的三种1bit储存器功能一致的电路结构，比较考验电路压缩技巧。</t>
   </si>
 </sst>
 </file>
@@ -399,12 +429,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,14 +451,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,8 +517,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,60 +556,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,19 +610,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,61 +742,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,97 +784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,15 +801,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -796,17 +824,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,6 +860,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -870,10 +907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,137 +919,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1032,6 +1069,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1352,10 +1395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1402,7 +1445,6 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1612,16 +1654,16 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1667,17 +1709,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+    <row r="23" ht="42" spans="1:4">
+      <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1922,20 +1964,63 @@
     <row r="41" spans="4:4">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="6"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" ht="28" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" s="6"/>
@@ -1948,6 +2033,9 @@
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
   <si>
     <t>名称</t>
   </si>
@@ -403,25 +403,46 @@
     <t>问题1</t>
   </si>
   <si>
+    <t>1355, -585</t>
+  </si>
+  <si>
     <t>有时因为空间的限制，会遇到输入和输出的位置和朝向固定，来建造某一种逻辑门。这个问题是关于与非门的，将标准的与非门简单改一下布线即可。</t>
   </si>
   <si>
     <t>问题2</t>
   </si>
   <si>
+    <t>1355, -570</t>
+  </si>
+  <si>
     <t>与或非门是4输入1输出的组合逻辑门，2个与门的输出接入1个或门，或门的输出再接入非门，真值表共16种情况。</t>
   </si>
   <si>
     <t>问题3</t>
   </si>
   <si>
+    <t>1355, -550</t>
+  </si>
+  <si>
     <t>将已经给出的多路选择器简化成2bit输出的情况即可。</t>
   </si>
   <si>
     <t>问题4</t>
   </si>
   <si>
+    <t>1355, -530</t>
+  </si>
+  <si>
     <t>给出一个精简版的与非RS触发器，基于它来建造一个和已经给出的三种1bit储存器功能一致的电路结构，比较考验电路压缩技巧。</t>
+  </si>
+  <si>
+    <t>问题5</t>
+  </si>
+  <si>
+    <t>1355, -675</t>
+  </si>
+  <si>
+    <t>判断谁先抢答的最小时间间隔越小越好，本问题给出的参考答案能做到0.2秒(2t)，比较考验电路压缩技巧，需要用到半砖(石台阶)来简化纵向信号传输。</t>
   </si>
 </sst>
 </file>
@@ -429,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -459,6 +480,66 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,9 +555,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,89 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,14 +621,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -610,6 +631,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,19 +769,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,151 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,9 +827,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,17 +866,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,10 +907,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -877,40 +922,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -919,133 +940,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1982,48 +2003,71 @@
       <c r="A43" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="B43" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="C43" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="6"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" ht="28" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" s="6"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="单元和模块列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
   <si>
     <t>名称</t>
   </si>
@@ -37,25 +37,25 @@
     <t>基础元件</t>
   </si>
   <si>
-    <t>包括红石火把，红石块，拉杆，压力板，按钮等，可恒定输出或触发输出高电平信号。</t>
+    <t>包括红石火把，红石块，拉杆，压力板，按钮等，可恒定输出或触发输出高电平信号，能将接触或指向的导体方块强充能。</t>
   </si>
   <si>
     <t>导线</t>
   </si>
   <si>
-    <t>红石粉放置在地面成为一个基本的导线单元，向邻接的其他信号元件传递信号。</t>
+    <t>红石粉放置在地面成为一个基本的导线单元，向邻接的其他信号元件传递信号，被导线覆盖或指向的导体方块会被弱充能。</t>
   </si>
   <si>
     <t>导体方块</t>
   </si>
   <si>
-    <t>用于放置其他信号元件的实体方块，可以被充能，绝大部分方块都是导体方块，存档中各种不同颜色的方块没有功能上的区别，只是为了更方便的区分不同的电路，否则用同种颜色的导体方块在电路很密集的情况下会难以区分三维结构。</t>
+    <t>用于放置其他信号元件的实体方块，可以被充能，绝大部分方块都是导体方块，存档中各种不同颜色的方块没有功能上的区别，只是为了更方便的区分不同的电路，否则用同种颜色的方块在电路很密集的情况下会难以区分三维结构。</t>
   </si>
   <si>
     <t>中继器</t>
   </si>
   <si>
-    <t>功能包括信号中继，单向传输(二极管)，延时，锁存(RAM锁存功能，可以视作简化版的RS触发器)。</t>
+    <t>功能包括信号中继，单向传输(二极管)，延时，锁存(RAM锁存功能，可以视作简化版的RS触发器)。中继器被激活时可以视作一个信号源，此时被中继器指向的导体方块会被强充能。</t>
   </si>
   <si>
     <t>活塞断路器</t>
@@ -64,7 +64,7 @@
     <t>1388, -636</t>
   </si>
   <si>
-    <t>用于在空间布线中简化部分电路的元件，由游戏中的粘性活塞加方块构成。</t>
+    <t>用于在空间布线中简化部分电路的元件，由游戏中的粘性活塞加方块构成。另外注意1.12以上版本粘性活塞推出和收回方块的需求激活时间是1t+0.5t=1.5t，所以激活信号小于1.5t会使得活塞放弃收回方块(活塞和方块会断开)。</t>
   </si>
   <si>
     <t>绝缘方块</t>
@@ -133,7 +133,7 @@
     <t>1400, -587</t>
   </si>
   <si>
-    <t>三种构型，由若干个非门和或门组成，第二种用到了活塞。</t>
+    <t>由1个或门1个与门和1个与非门组成。给出三种构型，第二种用到了活塞。</t>
   </si>
   <si>
     <t>同或门</t>
@@ -151,7 +151,7 @@
     <t>小型组合电路</t>
   </si>
   <si>
-    <t>两种构型：有活塞版和无活塞版，无活塞版较优，因为活塞的运行没有火把稳定。</t>
+    <t>由2个异或门2个与门和1个或门组成。给出三种构型：基于异或门型号1的版本，基于异或门型号2的版本，基于异或门型号3的版本(在Quiz的问题6中给出)。其中基于异或门型号1的版本体积最小且运行稳定，是最广泛采用的方案。基于异或门型号2的版本使用了活塞，由于活塞的运行不如火把稳定，所以尽量不要使用这种方案。</t>
   </si>
   <si>
     <t>低通滤波器</t>
@@ -199,10 +199,10 @@
     <t>1400, -653</t>
   </si>
   <si>
-    <t>有信号储存和翻转功能，上沿触发。</t>
-  </si>
-  <si>
-    <t>脉冲信号时钟发生器</t>
+    <t>两种构型：用传统门电路建造的版本，利用活塞响应时间不能小于1.5t的特性以及红石块作为储存信号的版本。有信号储存和翻转功能，上沿触发。</t>
+  </si>
+  <si>
+    <t>时钟发生器</t>
   </si>
   <si>
     <t>1400, -602</t>
@@ -391,7 +391,7 @@
     <t>1560, -630</t>
   </si>
   <si>
-    <t>采用CORDIC旋转迭代算法。需要和其他电路模块配合，所以只用于展示电路，无法演示完整功能。</t>
+    <t>采用Cordic旋转迭代算法。需要和其他电路模块配合，所以只用于展示电路，无法演示完整功能。</t>
   </si>
   <si>
     <t>QUIZ部分</t>
@@ -406,7 +406,7 @@
     <t>1355, -585</t>
   </si>
   <si>
-    <t>有时因为空间的限制，会遇到输入和输出的位置和朝向固定，来建造某一种逻辑门。这个问题是关于与非门的，将标准的与非门简单改一下布线即可。</t>
+    <t>有时因为空间的限制，会遇到输入和输出的位置和朝向已经固定不能改变，然后去建造某一种功能电路。这个问题是关于与非门的，将标准的与非门简单改一下布线即可。</t>
   </si>
   <si>
     <t>问题2</t>
@@ -442,7 +442,16 @@
     <t>1355, -675</t>
   </si>
   <si>
-    <t>判断谁先抢答的最小时间间隔越小越好，本问题给出的参考答案能做到0.2秒(2t)，比较考验电路压缩技巧，需要用到半砖(石台阶)来简化纵向信号传输。</t>
+    <t>判断谁先抢答(按下按钮)的最小时间间隔越小越好，本问题给出的参考答案能做到0.2秒(2t)，比较考验电路压缩技巧，需要用到半砖(石台阶)来简化纵向信号传输。</t>
+  </si>
+  <si>
+    <t>问题6</t>
+  </si>
+  <si>
+    <t>1355, -700</t>
+  </si>
+  <si>
+    <t>基于异或门型号3设计一个可以级联的全加器，并建造两个这样的全加器进行级联。非常考验电路压缩技巧和对逻辑门的应用。理解了存档中给出的几种全加器的设计理念，就等于掌握了Minecraft数字电路的精髓。</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -472,7 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="4" tint="-0.25"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -480,14 +489,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,15 +510,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -532,14 +525,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,14 +580,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -576,31 +593,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,9 +616,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,49 +658,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,25 +790,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,85 +820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,6 +831,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -836,17 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,15 +908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -909,16 +927,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,10 +937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,133 +949,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,8 +1427,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1484,28 +1493,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="28" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="28" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1618,17 +1627,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="42" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1688,17 +1697,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="28" spans="1:4">
+      <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2069,8 +2078,19 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="6"/>
+    <row r="48" ht="28" spans="1:4">
+      <c r="A48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="6"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
   <si>
     <t>名称</t>
   </si>
@@ -106,7 +106,7 @@
     <t>组合逻辑门</t>
   </si>
   <si>
-    <t>由一个或门和一个非门组成。</t>
+    <t>由1个或门和1个非门组成。</t>
   </si>
   <si>
     <t>与非门</t>
@@ -115,7 +115,7 @@
     <t>1388, -655</t>
   </si>
   <si>
-    <t>由两个非门和一个或门组成，输出端加上一个非门就变成与门。</t>
+    <t>由2个非门和1个或门组成，输出端加上1个非门就变成与门。</t>
   </si>
   <si>
     <t>与门</t>
@@ -124,7 +124,7 @@
     <t>1388, -665</t>
   </si>
   <si>
-    <t>两种构型(蓝色和黄色的两个可以视作同一种构型的变体)，都是由三个非门和一个或门组成。多输入与门读者可以尝试自行设计。</t>
+    <t>两种构型(蓝色和黄色的两个可以视作同一种构型的变体)，都是由3个非门和1个或门组成。多输入与门读者可以尝试自行设计。</t>
   </si>
   <si>
     <t>异或门</t>
@@ -139,7 +139,7 @@
     <t>同或门</t>
   </si>
   <si>
-    <t>存档中未单独给出，因为只需要将异或门输出端加一个非门就是同或门。</t>
+    <t>存档中未单独给出，因为只需要将异或门输出端加1个非门就是同或门。</t>
   </si>
   <si>
     <t>全加器</t>
@@ -181,7 +181,7 @@
     <t>小型时序电路</t>
   </si>
   <si>
-    <t>两个或非门输入输出互联的RS触发器，有记忆功能。</t>
+    <t>2个或非门输入输出互联的RS触发器，有记忆功能。给出的是最精简的版本。</t>
   </si>
   <si>
     <t>与非RS触发器</t>
@@ -364,7 +364,7 @@
     <t>大型时序电路</t>
   </si>
   <si>
-    <t>先开总开关，再开自动加一开关，就能观察到储存的地址数据一直循环自动加一的效果。另外也支持接收外部跳转地址等功能。</t>
+    <t>先开总开关，再开自动加1开关，就能观察到储存的地址数据一直循环自动加1的效果。另外也支持接收外部跳转地址等功能。</t>
   </si>
   <si>
     <t>8x1byte 全功能储存器</t>
@@ -451,7 +451,40 @@
     <t>1355, -700</t>
   </si>
   <si>
-    <t>基于异或门型号3设计一个可以级联的全加器，并建造两个这样的全加器进行级联。非常考验电路压缩技巧和对逻辑门的应用。理解了存档中给出的几种全加器的设计理念，就等于掌握了Minecraft数字电路的精髓。</t>
+    <t>基于异或门型号3设计一个可以级联的全加器，并建造两个这样的全加器进行级联。已经给出了2个操作数的输入端和2个初始的异或门。而2个全加器一共要用到4个异或门，4个与门和2个或门，所以现在还缺2个异或门，4个与门和2个或门。这非常考验电路压缩技巧和对逻辑门的应用。理解了存档中给出的几种全加器的设计理念，就等于掌握了Minecraft数字电路的精髓。这类全加器的电路压缩普遍用到了这些技巧：利用两个异或门中间的空隙处来实现进位端的运算，并且使得进位端的输入输出在一条直线上满足级联卡槽的需求。异或门中已经有与门结构，所以两个进位端的与门可以借用这两个异或门中的与门，所以最终实际上不需要建造额外的4个与门。另外还需要注意串线的问题，会用到诸如方块隔挡和半砖纵向单向传输的特点。</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>关于基础元件</t>
+  </si>
+  <si>
+    <t>基础元件的详细特性还是去看维基比较好，这份文档内容有限无法描述清楚。https://minecraft-zh.gamepedia.com/%E7%BA%A2%E7%9F%B3%E7%94%B5%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>关于兼容性</t>
+  </si>
+  <si>
+    <t>红石电路特性会随着游戏版本的变化而变化，所以兼容性就很重要。游戏中的基础元件本身有很多“特性”可以提供一些简化电路或加快传输速度的技巧，但这些特性和技巧很有可能未来会失效或发生无法预料的变化。我建造的电路大部分都是基于最基础的红石数字电路特性，尽量避免涉及到高频电路和BUD相关的部分，以防未来电路大面积失效，目前该教学存档中的电路未来应该是持续有效的。</t>
+  </si>
+  <si>
+    <t>关于红石模电</t>
+  </si>
+  <si>
+    <t>红石电路有另一个领域叫做“模电”，是基于红石比较器的特性衍生出来的电路逻辑体系。这里的“模电”不是真正的模拟电路，而是可以用元件储存和模拟出比2进制0-1信号更复杂的离散信号，玩家们通过某些手段可以将离散值的范围增加到非常大，看起来就像可以连续变化的模拟信号，所以把它称作“模电”。如果对这部分内容感兴趣可以去网上自行搜索，我对这方面没有太深入的了解。</t>
+  </si>
+  <si>
+    <t>关于机械</t>
+  </si>
+  <si>
+    <t>我用红石电路主要是做纯逻辑运算，而实际上Minecraft联机游戏中应用更广的是用红石电路为建筑和机械提供控制辅助。典型的应用比如多开门，电梯，发射器等等。这些领域都很有趣，而且有很多有创意的作品，网上可以找到大量的教程和存档。</t>
+  </si>
+  <si>
+    <t>关于Mcedit</t>
+  </si>
+  <si>
+    <t>如果没有这个第三方软件，我的作品是无法完成的，如果想深入研究和大规模建造红石电路，这个软件是必备的。</t>
   </si>
 </sst>
 </file>
@@ -459,8 +492,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -488,60 +521,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,68 +538,6 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -630,6 +555,114 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -640,187 +673,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,17 +867,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,6 +887,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -869,11 +905,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,26 +950,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,10 +970,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,137 +982,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1105,6 +1138,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1425,10 +1464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2078,7 +2117,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" ht="28" spans="1:4">
+    <row r="48" ht="84" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>143</v>
       </c>
@@ -2095,13 +2134,70 @@
     <row r="49" spans="4:4">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4">
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="6"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" ht="46" customHeight="1" spans="1:4">
+      <c r="A52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" ht="42" customHeight="1" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" ht="28" customHeight="1" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -133,7 +133,7 @@
     <t>1400, -587</t>
   </si>
   <si>
-    <t>由1个或门1个与门和1个与非门组成。给出三种构型，第二种用到了活塞。</t>
+    <t>由2个非门2个与门和1个或门组成。给出三种构型，第二种用到了活塞。</t>
   </si>
   <si>
     <t>同或门</t>
@@ -484,7 +484,7 @@
     <t>关于Mcedit</t>
   </si>
   <si>
-    <t>如果没有这个第三方软件，我的作品是无法完成的，如果想深入研究和大规模建造红石电路，这个软件是必备的。</t>
+    <t>如果没有这个第三方软件，我的作品是无法完成的，如果想深入研究和大规模建造红石电路，这个软件是必备的。如果需要建造大规模电路，可以将部分基础电路制作成模块用Mcedit储存下来，每个文件对应一个常用电路模块，用的时候加载出来放置到三维空间的指定位置。</t>
   </si>
 </sst>
 </file>
@@ -492,10 +492,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -528,6 +528,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -535,14 +542,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -550,7 +557,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,7 +596,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,7 +604,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,22 +626,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -636,21 +635,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +658,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,187 +673,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,6 +885,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -894,13 +924,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,47 +954,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,10 +970,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,137 +982,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1141,9 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1466,8 +1463,8 @@
   <sheetPr/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2180,15 +2177,15 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+    <row r="55" ht="29" customHeight="1" spans="1:4">
+      <c r="A55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="160">
   <si>
     <t>名称</t>
   </si>
@@ -229,6 +229,15 @@
     <t>三种构型：非精简版的与非RS触发器改造成D触发器版，或非RS触发器改造成D触发器版，中继器锁存特性版。用这三种方式实现可以直观的看出同样功能的电路采用不同方案的体积差异非常巨大。造大规模储存器显然会选用中继器版，因为空间占用较小。精简版的与非RS触发器做成的1bit储存器在问题4中给出。</t>
   </si>
   <si>
+    <t>1t高频输出</t>
+  </si>
+  <si>
+    <t>1355, -728</t>
+  </si>
+  <si>
+    <t>每2t输出1t信号，大规模使用请谨慎，容易造成卡顿。输出端不能出现2个以上中继器首尾相连的情况，否则最后一个中继器会出现信号退化变成持续稳定输出。</t>
+  </si>
+  <si>
     <t>8bit 全加器阵列</t>
   </si>
   <si>
@@ -247,16 +256,16 @@
     <t>1416, -668</t>
   </si>
   <si>
-    <t>比较两个输入数大小，因为空间不够用只造了4位的，将中间部分的电路级联就能扩展位数。</t>
-  </si>
-  <si>
-    <t>多路选择器</t>
+    <t>比较两个输入数大小，因为空间不够用只造了4位的，将中间部分的电路级联就能扩展位数。红色操作数大则红色活塞方块推出，反之亦然。</t>
+  </si>
+  <si>
+    <t>4-10译码器</t>
   </si>
   <si>
     <t>1450, -662</t>
   </si>
   <si>
-    <t>对输入的地址数据进行译码，选出对应的控制端。</t>
+    <t>对输入的地址数据进行译码，选出对应的输出端。</t>
   </si>
   <si>
     <t>15bit 位数判断器</t>
@@ -424,7 +433,7 @@
     <t>1355, -550</t>
   </si>
   <si>
-    <t>将已经给出的多路选择器简化成2bit输出的情况即可。</t>
+    <t>将已经给出的4-10译码器简化成2bit的2-4译码器即可。</t>
   </si>
   <si>
     <t>问题4</t>
@@ -492,10 +501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -521,7 +530,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,14 +580,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +619,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,7 +627,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,21 +657,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -625,44 +672,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -673,181 +682,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,71 +879,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,6 +902,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -964,16 +919,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,10 +1470,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1789,45 +1798,45 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="28" spans="1:4">
+      <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+    <row r="26" ht="28" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1839,7 +1848,7 @@
         <v>82</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>83</v>
@@ -1853,7 +1862,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>86</v>
@@ -1867,7 +1876,7 @@
         <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>89</v>
@@ -1881,21 +1890,21 @@
         <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>96</v>
@@ -1909,7 +1918,7 @@
         <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>99</v>
@@ -1923,21 +1932,21 @@
         <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>106</v>
@@ -1951,7 +1960,7 @@
         <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>109</v>
@@ -1965,7 +1974,7 @@
         <v>111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>112</v>
@@ -1979,21 +1988,21 @@
         <v>114</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>119</v>
@@ -2007,7 +2016,7 @@
         <v>121</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>122</v>
@@ -2021,44 +2030,44 @@
         <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="8" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" ht="28" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="28" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>131</v>
       </c>
@@ -2068,7 +2077,7 @@
       <c r="C44" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2080,41 +2089,41 @@
         <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>54</v>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" ht="28" spans="1:4">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" ht="84" spans="1:4">
+    <row r="48" ht="28" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>143</v>
       </c>
@@ -2122,78 +2131,92 @@
         <v>144</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
+    <row r="49" ht="84" spans="1:4">
+      <c r="A49" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="B49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" ht="46" customHeight="1" spans="1:4">
-      <c r="A52" s="3" t="s">
+      <c r="A51" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="B52" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" ht="42" customHeight="1" spans="1:4">
+    <row r="53" ht="46" customHeight="1" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" ht="28" customHeight="1" spans="1:4">
+    <row r="54" ht="42" customHeight="1" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" ht="29" customHeight="1" spans="1:4">
+    <row r="55" ht="28" customHeight="1" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
     </row>
+    <row r="56" ht="29" customHeight="1" spans="1:4">
+      <c r="A56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -124,7 +124,7 @@
     <t>1388, -665</t>
   </si>
   <si>
-    <t>两种构型(蓝色和黄色的两个可以视作同一种构型的变体)，都是由3个非门和1个或门组成。多输入与门读者可以尝试自行设计。</t>
+    <t>三种构型，第一种和第三种是由3个非门和1个或门组成，第二种用到了粘性活塞和充能特性。多输入与门读者可以尝试自行设计。</t>
   </si>
   <si>
     <t>异或门</t>
@@ -133,7 +133,7 @@
     <t>1400, -587</t>
   </si>
   <si>
-    <t>由2个非门2个与门和1个或门组成。给出三种构型，第二种用到了活塞。</t>
+    <t>有很多种逻辑代数表达式对应的实现方式，见文档“异或门和全加器设计详解”。存档中给出两种逻辑代数表达式对应的三种构型。</t>
   </si>
   <si>
     <t>同或门</t>
@@ -151,7 +151,7 @@
     <t>小型组合电路</t>
   </si>
   <si>
-    <t>由2个异或门2个与门和1个或门组成。给出三种构型：基于异或门型号1的版本，基于异或门型号2的版本，基于异或门型号3的版本(在Quiz的问题6中给出)。其中基于异或门型号1的版本体积最小且运行稳定，是最广泛采用的方案。基于异或门型号2的版本使用了活塞，由于活塞的运行不如火把稳定，所以尽量不要使用这种方案。</t>
+    <t>详细设计思路见文档“异或门和全加器设计详解”。给出三种构型：基于异或门型号1的版本，基于异或门型号2的版本，基于异或门型号3的版本(在Quiz的问题6中给出)。其中基于异或门型号1的版本体积最小且运行稳定，是最广泛采用的方案。基于异或门型号2的版本使用了活塞，由于活塞的运行不如火把稳定，所以尽量不要使用这种方案。</t>
   </si>
   <si>
     <t>低通滤波器</t>
@@ -220,7 +220,7 @@
     <t>实现以继电器最小tick(0.1秒)为倍数的任意时间长度信号之间的转换，上沿触发。设置输入和输出的时间长度需要去修改电路中的继电器数量并调整挡位。</t>
   </si>
   <si>
-    <t>1bit 储存器单元</t>
+    <t>1bit储存器单元</t>
   </si>
   <si>
     <t>1450, -635</t>
@@ -238,7 +238,7 @@
     <t>每2t输出1t信号，大规模使用请谨慎，容易造成卡顿。输出端不能出现2个以上中继器首尾相连的情况，否则最后一个中继器会出现信号退化变成持续稳定输出。</t>
   </si>
   <si>
-    <t>8bit 全加器阵列</t>
+    <t>8bit全加器阵列</t>
   </si>
   <si>
     <t>1430, -600</t>
@@ -250,7 +250,7 @@
     <t>多个全加器并排，可以演示进位加法，蓝色输入端为操作数A，红色输入端为操作数B，两者相互交错。</t>
   </si>
   <si>
-    <t>4bit 比较器</t>
+    <t>4bit比较器</t>
   </si>
   <si>
     <t>1416, -668</t>
@@ -268,7 +268,7 @@
     <t>对输入的地址数据进行译码，选出对应的输出端。</t>
   </si>
   <si>
-    <t>15bit 位数判断器</t>
+    <t>15bit位数判断器</t>
   </si>
   <si>
     <t>1450, -565</t>
@@ -325,7 +325,7 @@
     <t>储存信号可以向相反的两个方向移位的触发器，上沿触发，可用于寄存器栈结构的栈顶指针。</t>
   </si>
   <si>
-    <t>8bit 全功能加法器</t>
+    <t>8bit全功能加法器</t>
   </si>
   <si>
     <t>1400, -710</t>
@@ -346,7 +346,7 @@
     <t>使用通用的BIN转BCD算法。输入为二进制，输出为十进制，输出的每4个二进制位表示一个十进制位的数字。</t>
   </si>
   <si>
-    <t>15bit 整数乘法器</t>
+    <t>15bit整数乘法器</t>
   </si>
   <si>
     <t>1560, -725</t>
@@ -355,7 +355,7 @@
     <t>串行乘法器，因为输入输出都是15位，所以有一些部分积电路是多余的，但是我没有删去。</t>
   </si>
   <si>
-    <t>15bit 整数除法器</t>
+    <t>15bit整数除法器</t>
   </si>
   <si>
     <t>1560, -530</t>
@@ -460,7 +460,7 @@
     <t>1355, -700</t>
   </si>
   <si>
-    <t>基于异或门型号3设计一个可以级联的全加器，并建造两个这样的全加器进行级联。已经给出了2个操作数的输入端和2个初始的异或门。而2个全加器一共要用到4个异或门，4个与门和2个或门，所以现在还缺2个异或门，4个与门和2个或门。这非常考验电路压缩技巧和对逻辑门的应用。理解了存档中给出的几种全加器的设计理念，就等于掌握了Minecraft数字电路的精髓。这类全加器的电路压缩普遍用到了这些技巧：利用两个异或门中间的空隙处来实现进位端的运算，并且使得进位端的输入输出在一条直线上满足级联卡槽的需求。异或门中已经有与门结构，所以两个进位端的与门可以借用这两个异或门中的与门，所以最终实际上不需要建造额外的4个与门。另外还需要注意串线的问题，会用到诸如方块隔挡和半砖纵向单向传输的特点。</t>
+    <t>基于异或门型号3设计一个可以级联的全加器，并建造两个这样的全加器进行级联。已经给出了2个操作数的输入端和2个初始的异或门。具体设计细节见文档“全加器设计详解”。</t>
   </si>
   <si>
     <t>其他</t>
@@ -487,7 +487,7 @@
     <t>关于机械</t>
   </si>
   <si>
-    <t>我用红石电路主要是做纯逻辑运算，而实际上Minecraft联机游戏中应用更广的是用红石电路为建筑和机械提供控制辅助。典型的应用比如多开门，电梯，发射器等等。这些领域都很有趣，而且有很多有创意的作品，网上可以找到大量的教程和存档。</t>
+    <t>我用红石电路主要是做纯逻辑运算，而实际上Minecraft联机游戏中应用更广的是用红石电路为建筑和机械提供控制辅助。典型的应用比如多开门，电梯，发射器等等。这些领域都很有趣，网络上有很多有高手玩家和很有创意的作品。</t>
   </si>
   <si>
     <t>关于Mcedit</t>
@@ -501,10 +501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -544,7 +544,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,51 +665,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -617,61 +672,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -682,19 +682,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,13 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,145 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,11 +876,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,6 +926,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -931,6 +946,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,40 +973,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2137,7 +2137,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" ht="84" spans="1:4">
+    <row r="49" ht="28" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>146</v>
       </c>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -217,7 +217,7 @@
     <t>1400, -616</t>
   </si>
   <si>
-    <t>实现以继电器最小tick(0.1秒)为倍数的任意时间长度信号之间的转换，上沿触发。设置输入和输出的时间长度需要去修改电路中的继电器数量并调整挡位。</t>
+    <t>实现以中继器最小tick(0.1秒)为倍数的任意时间长度信号之间的转换，上沿触发。设置输入和输出的时间长度需要去修改电路中的继电器数量并调整挡位。</t>
   </si>
   <si>
     <t>1bit储存器单元</t>
@@ -502,8 +502,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -530,6 +530,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -537,14 +544,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,23 +558,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,9 +589,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,7 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +628,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,37 +672,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -682,13 +682,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,37 +832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,121 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +887,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,26 +950,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -954,22 +969,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="单元和模块列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
   <si>
     <t>名称</t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>采用Cordic旋转迭代算法。需要和其他电路模块配合，所以只用于展示电路，无法演示完整功能。</t>
+  </si>
+  <si>
+    <t>键盘和显示器</t>
+  </si>
+  <si>
+    <t>1730, -700</t>
+  </si>
+  <si>
+    <t>超大型时序电路</t>
+  </si>
+  <si>
+    <t>有两个开关，一个是开启显示器的开关，一个是键盘背光全亮的开关。跳到键盘键位的压力板上会触发输入信号，驱动显示器显示字符。由于空间有限键盘并没有包含所有标准键盘的按键，比如没有_，%，&amp;等字符。显示器有一些待优化的部分比如换行和切换位置时的闪烁问题。尽量保证输入两个字符之间的时间间隔大于5秒，我没有做快速输入时的阻拦，所以快速输入时字符可能会显示错误。这是一个较为复杂的超大型时序电路，显示器的核心是译码器和双向移位器，译码器将键盘输入的字符编码翻译成屏幕上的5x5像素点，双向移位器用于控制输入位置的左右移动。</t>
   </si>
   <si>
     <t>QUIZ部分</t>
@@ -501,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -530,68 +542,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +564,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,16 +592,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,9 +617,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,6 +646,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -682,187 +694,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,36 +885,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -917,11 +899,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,9 +923,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,25 +985,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,133 +1003,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,13 +1482,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.8333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.9166666666667" style="3" customWidth="1"/>
@@ -1527,7 +1539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:4">
+    <row r="4" ht="27.6" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="28" spans="1:4">
+    <row r="5" ht="27.6" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:4">
+    <row r="6" ht="27.6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1672,7 +1684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="42" spans="1:4">
+    <row r="15" ht="41.4" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:4">
+    <row r="16" ht="27.6" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:4">
+    <row r="17" ht="27.6" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="27.6" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:4">
+    <row r="20" ht="27.6" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" ht="42" spans="1:4">
+    <row r="21" ht="41.4" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" ht="28" spans="1:4">
+    <row r="22" ht="27.6" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -1784,7 +1796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" ht="42" spans="1:4">
+    <row r="23" ht="41.4" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" ht="28" spans="1:4">
+    <row r="24" ht="27.6" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" ht="28" spans="1:4">
+    <row r="26" ht="27.6" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -2050,173 +2062,187 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8" t="s">
+    <row r="42" ht="69" spans="1:4">
+      <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" ht="28" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" ht="27.6" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>136</v>
+      <c r="D45" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" ht="28" spans="1:4">
-      <c r="A48" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" ht="27.6" spans="1:4">
+      <c r="A49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" ht="28" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" ht="27.6" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="D50" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" ht="46" customHeight="1" spans="1:4">
-      <c r="A53" s="3" t="s">
-        <v>152</v>
+      <c r="A52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" ht="42" customHeight="1" spans="1:4">
+    <row r="54" ht="46" customHeight="1" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
     </row>
-    <row r="55" ht="28" customHeight="1" spans="1:4">
+    <row r="55" ht="42" customHeight="1" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" ht="29" customHeight="1" spans="1:4">
+    <row r="56" ht="28" customHeight="1" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
     </row>
+    <row r="57" ht="29" customHeight="1" spans="1:4">
+      <c r="A57" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -412,7 +412,7 @@
     <t>超大型时序电路</t>
   </si>
   <si>
-    <t>有两个开关，一个是开启显示器的开关，一个是键盘背光全亮的开关。跳到键盘键位的压力板上会触发输入信号，驱动显示器显示字符。由于空间有限键盘并没有包含所有标准键盘的按键，比如没有_，%，&amp;等字符。显示器有一些待优化的部分比如换行和切换位置时的闪烁问题。尽量保证输入两个字符之间的时间间隔大于5秒，我没有做快速输入时的阻拦，所以快速输入时字符可能会显示错误。这是一个较为复杂的超大型时序电路，显示器的核心是译码器和双向移位器，译码器将键盘输入的字符编码翻译成屏幕上的5x5像素点，双向移位器用于控制输入位置的左右移动。</t>
+    <t>显示器最多可以输入两行，每行12个字符。键盘旁边有两个开关，一个是开启显示器的开关，一个是键盘背光全亮的开关。跳到键盘键位的压力板上会触发输入信号，驱动显示器显示字符。由于空间有限键盘并没有包含所有标准键盘的按键，比如没有_，%，&amp;等字符。显示器有一些待优化的部分比如换行和切换位置时的闪烁问题。尽量保证输入两个字符之间的时间间隔大于5秒，我没有做快速输入时的阻拦，所以快速输入时字符可能会显示错误。这是一个较为复杂的超大型时序电路，显示器的核心是译码器和双向移位器，译码器将键盘输入的字符编码翻译成屏幕上的5x5像素点，双向移位器用于控制输入位置的左右移动。</t>
   </si>
   <si>
     <t>QUIZ部分</t>
@@ -513,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -542,22 +542,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,63 +577,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,9 +599,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,24 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,187 +694,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,20 +888,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,26 +920,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,17 +966,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,133 +1003,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D47" sqref="D46:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2062,7 +2062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" ht="69" spans="1:4">
+    <row r="42" ht="82.8" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>129</v>
       </c>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -412,7 +412,7 @@
     <t>超大型时序电路</t>
   </si>
   <si>
-    <t>显示器最多可以输入两行，每行12个字符。键盘旁边有两个开关，一个是开启显示器的开关，一个是键盘背光全亮的开关。跳到键盘键位的压力板上会触发输入信号，驱动显示器显示字符。由于空间有限键盘并没有包含所有标准键盘的按键，比如没有_，%，&amp;等字符。显示器有一些待优化的部分比如换行和切换位置时的闪烁问题。尽量保证输入两个字符之间的时间间隔大于5秒，我没有做快速输入时的阻拦，所以快速输入时字符可能会显示错误。这是一个较为复杂的超大型时序电路，显示器的核心是译码器和双向移位器，译码器将键盘输入的字符编码翻译成屏幕上的5x5像素点，双向移位器用于控制输入位置的左右移动。</t>
+    <t>显示器最多可以输入两行，每行12个字符，触发回车键可以换行，上下左右键可以任意移动输入位置。键盘旁边有两个开关，一个是开启显示器的开关，一个是键盘背光全亮的开关。跳到键盘键位的压力板上会触发输入信号，驱动显示器显示字符。由于空间有限键盘并没有包含所有标准键盘的按键，比如没有_，%，&amp;等字符。显示器有一些待优化的部分比如换行和切换位置时的闪烁问题。尽量保证输入两个字符之间的时间间隔大于5秒，我没有做快速输入时的阻拦，所以快速输入时字符可能会显示错误。这是一个较为复杂的超大型时序电路，显示器的核心是译码器和双向移位器，译码器将键盘输入的字符编码翻译成屏幕上的5x5像素点，双向移位器用于控制输入位置的左右移动。我现在控制两行只需要用到一个T触发器，如果想把显示器扩展成更多行，可以增加一个双向移位器来控制多行。</t>
   </si>
   <si>
     <t>QUIZ部分</t>
@@ -513,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -542,13 +542,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -557,67 +550,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +564,75 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -639,9 +640,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,31 +678,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,37 +694,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,43 +832,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,96 +875,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,21 +885,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -922,7 +907,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,6 +938,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,28 +980,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,133 +1003,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1484,8 +1484,8 @@
   <sheetPr/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D47" sqref="D46:D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2062,7 +2062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" ht="82.8" spans="1:4">
+    <row r="42" ht="96.6" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>129</v>
       </c>

--- a/docs/教学存档单元和模块列表.xlsx
+++ b/docs/教学存档单元和模块列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23808" windowHeight="11904"/>
   </bookViews>
   <sheets>
     <sheet name="单元和模块列表" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
     <t>超大型时序电路</t>
   </si>
   <si>
-    <t>显示器最多可以输入两行，每行12个字符，触发回车键可以换行，上下左右键可以任意移动输入位置。键盘旁边有两个开关，一个是开启显示器的开关，一个是键盘背光全亮的开关。跳到键盘键位的压力板上会触发输入信号，驱动显示器显示字符。由于空间有限键盘并没有包含所有标准键盘的按键，比如没有_，%，&amp;等字符。显示器有一些待优化的部分比如换行和切换位置时的闪烁问题。尽量保证输入两个字符之间的时间间隔大于5秒，我没有做快速输入时的阻拦，所以快速输入时字符可能会显示错误。这是一个较为复杂的超大型时序电路，显示器的核心是译码器和双向移位器，译码器将键盘输入的字符编码翻译成屏幕上的5x5像素点，双向移位器用于控制输入位置的左右移动。我现在控制两行只需要用到一个T触发器，如果想把显示器扩展成更多行，可以增加一个双向移位器来控制多行。</t>
+    <t>显示器最多可以输入两行，每行12个字符，触发回车键可以换行，上下左右键可以任意移动输入位置。键盘旁边有两个开关，一个是开启显示器的开关，一个是键盘背光全亮的开关。跳到键盘键位的压力板上会触发输入信号，驱动显示器显示字符。由于空间有限键盘并没有包含所有标准键盘的按键，比如没有_，%，&amp;，~等字符。显示器有一些待优化的部分比如换行和切换位置时的闪烁问题。需要保证输入两个字符之间的时间间隔大于6秒（因为我没有做针对快速输入的阻拦，输入速度过快时后续电路反应不及时会导致字符显示为空或显示错误）。这是一个较为复杂的超大型时序电路，显示器的核心是译码器和双向移位器，译码器将键盘输入的字符编码翻译成屏幕上的5x5像素点，双向移位器用于控制输入位置的左右移动。我现在控制两行只需要用到一个T触发器，如果想把显示器扩展成更多行，可以增加一个双向移位器来控制列移动。</t>
   </si>
   <si>
     <t>QUIZ部分</t>
@@ -549,44 +549,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -596,75 +558,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,6 +577,113 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -694,109 +694,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,73 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,6 +885,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -908,56 +958,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,10 +991,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,133 +1003,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1484,8 +1484,8 @@
   <sheetPr/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2062,7 +2062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" ht="96.6" spans="1:4">
+    <row r="42" ht="110.4" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
